--- a/static/all_reports.xlsx
+++ b/static/all_reports.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,10 +452,15 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
+          <t>Quantity</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
           <t>In Stock</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>Created</t>
         </is>
@@ -464,84 +469,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Added Product Now</t>
+          <t>Updted Product</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>T-shirt</t>
+          <t>hodi</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>220</v>
-      </c>
-      <c r="E2" t="b">
+        <v>100</v>
+      </c>
+      <c r="E2" t="n">
         <v>1</v>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2023-05-04 18:11:37</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Added Product Now</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>T-shirt</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>220</v>
-      </c>
-      <c r="E3" t="b">
+      <c r="F2" t="b">
         <v>1</v>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2023-05-04 18:11:34</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Added Product</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>T-shirt</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>220</v>
-      </c>
-      <c r="E4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2023-05-04 18:08:05</t>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2023-05-04 21:27:59</t>
         </is>
       </c>
     </row>

--- a/static/all_reports.xlsx
+++ b/static/all_reports.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,12 +469,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Updted Product</t>
+          <t>Added Product Now</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -492,6 +492,37 @@
         <v>1</v>
       </c>
       <c r="G2" t="inlineStr">
+        <is>
+          <t>2023-05-04 22:25:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Updted Product</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>hodi</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>100</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t>2023-05-04 21:27:59</t>
         </is>

--- a/static/all_reports.xlsx
+++ b/static/all_reports.xlsx
@@ -474,26 +474,26 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Added Product Now</t>
+          <t>Added Product Tshirt</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>hodi</t>
+          <t>Shose</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2023-05-04 22:25:35</t>
+          <t>2023-05-05 13:57:18</t>
         </is>
       </c>
     </row>
@@ -505,26 +505,26 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Updted Product</t>
+          <t>Added Product Now</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>hodi</t>
+          <t>Shose</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2023-05-04 21:27:59</t>
+          <t>2023-05-05 13:56:55</t>
         </is>
       </c>
     </row>

--- a/static/all_reports.xlsx
+++ b/static/all_reports.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,7 +469,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -479,52 +479,83 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Shose</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2023-05-05 13:57:18</t>
+          <t>2023-05-06 21:08:52</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Added Product Now</t>
+          <t>Added Product Tshirt</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Shose</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2023-05-05 13:56:55</t>
+          <t>2023-05-06 21:08:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Added Product Tshirt</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>cat</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>120</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2023-05-06 21:08:44</t>
         </is>
       </c>
     </row>
